--- a/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{307C0F81-45A7-461A-B381-033A448D500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{828B43B5-2C00-4681-BAFC-31F214599EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02F13043-D177-4B37-82F3-DC6FB9857156}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98284D2A-7585-4C07-8B74-0ADDE3D334BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="298">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>30,74%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,538 +197,547 @@
     <t>40,16%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>38,13%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>62,03%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>67,11%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>76,86%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>60,57%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
   </si>
   <si>
     <t>45,36%</t>
   </si>
   <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>56,45%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>37,54%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
   </si>
   <si>
     <t>62,73%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>63,87%</t>
   </si>
   <si>
-    <t>62,46%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
@@ -737,205 +746,193 @@
     <t>22,63%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>28,76%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>44,34%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
+    <t>55,97%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB813B16-C694-45F1-9160-28CCA130627E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2136608C-F7DD-40CB-91A6-D3839CAED06A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1829,7 +1826,7 @@
         <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>269848</v>
+        <v>269847</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1880,7 +1877,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF941E-18EE-406E-AA6B-589BA42A4C96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D23A632-6E6D-40DF-B9C0-6F4B3ABD7A1D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2392,13 +2389,13 @@
         <v>568515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1064</v>
@@ -2407,13 +2404,13 @@
         <v>1129888</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2425,13 @@
         <v>1125913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>949</v>
@@ -2443,13 +2440,13 @@
         <v>1022701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2010</v>
@@ -2458,13 +2455,13 @@
         <v>2148614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2529,13 @@
         <v>182204</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>163</v>
@@ -2547,13 +2544,13 @@
         <v>177188</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -2562,13 +2559,13 @@
         <v>359391</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2580,13 @@
         <v>259930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -2598,13 +2595,13 @@
         <v>246535</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -2613,13 +2610,13 @@
         <v>506466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2684,13 @@
         <v>861881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>912</v>
@@ -2702,13 +2699,13 @@
         <v>982167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1724</v>
@@ -2717,13 +2714,13 @@
         <v>1844047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,28 +2735,28 @@
         <v>2044652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2001</v>
       </c>
       <c r="I14" s="7">
-        <v>2162057</v>
+        <v>2162056</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>3917</v>
@@ -2768,13 +2765,13 @@
         <v>4206709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2798,7 @@
         <v>2913</v>
       </c>
       <c r="I15" s="7">
-        <v>3144224</v>
+        <v>3144223</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3316F3A4-D6FC-4BA6-B34D-DFAF403BDD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77870AD4-FA0B-437D-8ED7-7B2A9F8541AC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2970,13 @@
         <v>93699</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -2988,13 +2985,13 @@
         <v>159979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>248</v>
@@ -3003,13 +3000,13 @@
         <v>253678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3021,13 @@
         <v>363720</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>430</v>
@@ -3039,13 +3036,13 @@
         <v>478895</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>795</v>
@@ -3054,13 +3051,13 @@
         <v>842616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3125,13 @@
         <v>594671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>646</v>
@@ -3143,13 +3140,13 @@
         <v>673688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1212</v>
@@ -3158,13 +3155,13 @@
         <v>1268359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3176,13 @@
         <v>1101934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1000</v>
@@ -3194,13 +3191,13 @@
         <v>1035031</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2033</v>
@@ -3209,13 +3206,13 @@
         <v>2136965</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3280,13 @@
         <v>238068</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>222</v>
@@ -3298,13 +3295,13 @@
         <v>230597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>442</v>
@@ -3313,13 +3310,13 @@
         <v>468664</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3331,13 @@
         <v>261176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -3349,13 +3346,13 @@
         <v>277723</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -3364,13 +3361,13 @@
         <v>538900</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3435,13 @@
         <v>926437</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>1020</v>
@@ -3453,13 +3450,13 @@
         <v>1064264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>1902</v>
@@ -3468,13 +3465,13 @@
         <v>1990701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3486,13 @@
         <v>1726832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>1696</v>
@@ -3504,13 +3501,13 @@
         <v>1791649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>3333</v>
@@ -3519,13 +3516,13 @@
         <v>3518481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D2E40-1360-4AC6-ABC2-39D259E80D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299CE63-3D7B-4931-A5B8-A9B44DD819FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3721,13 @@
         <v>115569</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>428</v>
@@ -3739,13 +3736,13 @@
         <v>260955</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>564</v>
@@ -3754,13 +3751,13 @@
         <v>376524</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3772,13 @@
         <v>395114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>942</v>
@@ -3790,13 +3787,13 @@
         <v>537769</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>1454</v>
@@ -3805,13 +3802,13 @@
         <v>932883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3876,13 @@
         <v>1017138</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>1512</v>
@@ -3894,28 +3891,28 @@
         <v>1192123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>2446</v>
       </c>
       <c r="N7" s="7">
-        <v>2209260</v>
+        <v>2209261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3927,13 @@
         <v>1078502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1337</v>
@@ -3945,13 +3942,13 @@
         <v>1014031</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>2325</v>
@@ -3960,13 +3957,13 @@
         <v>2092534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4005,7 @@
         <v>4771</v>
       </c>
       <c r="N9" s="7">
-        <v>4301794</v>
+        <v>4301795</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4034,13 +4031,13 @@
         <v>396858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>574</v>
@@ -4049,10 +4046,10 @@
         <v>403933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>272</v>
@@ -4106,7 +4103,7 @@
         <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -4115,13 +4112,13 @@
         <v>565325</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4186,13 @@
         <v>1529564</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>2514</v>
@@ -4207,25 +4204,25 @@
         <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>3981</v>
       </c>
       <c r="N13" s="7">
-        <v>3386575</v>
+        <v>3386574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,10 +4237,10 @@
         <v>1738814</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>293</v>
@@ -4261,7 +4258,7 @@
         <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>4467</v>
@@ -4270,13 +4267,13 @@
         <v>3590743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,7 +4315,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977318</v>
+        <v>6977317</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828B43B5-2C00-4681-BAFC-31F214599EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D8F630-3E2E-45BF-8C64-5593751BAE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98284D2A-7585-4C07-8B74-0ADDE3D334BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49208439-ECC3-42B0-ACF8-A84329DD6598}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>16,64%</t>
@@ -89,16 +89,16 @@
     <t>14,27%</t>
   </si>
   <si>
-    <t>18,87%</t>
+    <t>18,89%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>81,13%</t>
+    <t>81,11%</t>
   </si>
   <si>
     <t>85,73%</t>
@@ -125,10 +125,10 @@
     <t>83,2%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>30,74%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,736 +197,727 @@
     <t>40,16%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>38,32%</t>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>47,85%</t>
   </si>
   <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
   </si>
   <si>
     <t>52,15%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
   </si>
   <si>
     <t>48,49%</t>
@@ -1344,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2136608C-F7DD-40CB-91A6-D3839CAED06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0D49A9-1A2A-4E45-8F13-3489AD23552A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1826,7 +1817,7 @@
         <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>269847</v>
+        <v>269848</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1877,7 +1868,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2011,7 +2002,7 @@
         <v>3630</v>
       </c>
       <c r="N14" s="7">
-        <v>3693421</v>
+        <v>3693422</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2062,7 +2053,7 @@
         <v>5083</v>
       </c>
       <c r="N15" s="7">
-        <v>5192750</v>
+        <v>5192751</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2095,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D23A632-6E6D-40DF-B9C0-6F4B3ABD7A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBCA435-5F96-4074-8B84-2488DB2F0A60}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2556,7 @@
         <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2571,13 @@
         <v>259930</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -2595,13 +2586,13 @@
         <v>246535</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -2610,13 +2601,13 @@
         <v>506466</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2675,13 @@
         <v>861881</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>912</v>
@@ -2699,13 +2690,13 @@
         <v>982167</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1724</v>
@@ -2714,13 +2705,13 @@
         <v>1844047</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2726,13 @@
         <v>2044652</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2001</v>
@@ -2750,13 +2741,13 @@
         <v>2162056</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>3917</v>
@@ -2765,13 +2756,13 @@
         <v>4206709</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77870AD4-FA0B-437D-8ED7-7B2A9F8541AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B04626-AD42-4C50-AEA6-0DD9FDEF9574}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2863,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2970,13 +2961,13 @@
         <v>93699</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>152</v>
@@ -2985,13 +2976,13 @@
         <v>159979</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>248</v>
@@ -3000,13 +2991,13 @@
         <v>253678</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3012,13 @@
         <v>363720</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>430</v>
@@ -3036,13 +3027,13 @@
         <v>478895</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>795</v>
@@ -3051,13 +3042,13 @@
         <v>842616</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3116,13 @@
         <v>594671</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>646</v>
@@ -3140,13 +3131,13 @@
         <v>673688</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1212</v>
@@ -3155,13 +3146,13 @@
         <v>1268359</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3167,13 @@
         <v>1101934</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1000</v>
@@ -3191,13 +3182,13 @@
         <v>1035031</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2033</v>
@@ -3206,13 +3197,13 @@
         <v>2136965</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3271,13 @@
         <v>238068</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>222</v>
@@ -3295,13 +3286,13 @@
         <v>230597</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>442</v>
@@ -3310,13 +3301,13 @@
         <v>468664</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3322,13 @@
         <v>261176</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -3346,13 +3337,13 @@
         <v>277723</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -3361,13 +3352,13 @@
         <v>538900</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3426,13 @@
         <v>926437</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>1020</v>
@@ -3450,13 +3441,13 @@
         <v>1064264</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>1902</v>
@@ -3465,13 +3456,13 @@
         <v>1990701</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3477,13 @@
         <v>1726832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>1696</v>
@@ -3501,13 +3492,13 @@
         <v>1791649</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>3333</v>
@@ -3516,13 +3507,13 @@
         <v>3518481</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D299CE63-3D7B-4931-A5B8-A9B44DD819FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C60C19-05D8-43C4-A3C4-936DFF43AB6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3614,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3721,13 +3712,13 @@
         <v>115569</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>428</v>
@@ -3736,13 +3727,13 @@
         <v>260955</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>564</v>
@@ -3751,13 +3742,13 @@
         <v>376524</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3763,13 @@
         <v>395114</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>942</v>
@@ -3787,13 +3778,13 @@
         <v>537769</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>1454</v>
@@ -3802,13 +3793,13 @@
         <v>932883</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3867,13 @@
         <v>1017138</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>1512</v>
@@ -3891,13 +3882,13 @@
         <v>1192123</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>2446</v>
@@ -3906,13 +3897,13 @@
         <v>2209261</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3918,13 @@
         <v>1078502</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>1337</v>
@@ -3942,13 +3933,13 @@
         <v>1014031</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>2325</v>
@@ -3957,13 +3948,13 @@
         <v>2092534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4022,13 @@
         <v>396858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>574</v>
@@ -4046,13 +4037,13 @@
         <v>403933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>971</v>
@@ -4061,13 +4052,13 @@
         <v>800791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4073,13 @@
         <v>265197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>414</v>
@@ -4097,13 +4088,13 @@
         <v>300128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -4112,13 +4103,13 @@
         <v>565325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4177,13 @@
         <v>1529564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>2514</v>
@@ -4201,13 +4192,13 @@
         <v>1857011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>3981</v>
@@ -4216,13 +4207,13 @@
         <v>3386574</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4228,13 @@
         <v>1738814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>2693</v>
@@ -4252,13 +4243,13 @@
         <v>1851929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>4467</v>
@@ -4267,13 +4258,13 @@
         <v>3590743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D8F630-3E2E-45BF-8C64-5593751BAE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AFF88D-283B-4C80-B697-3F6678558E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49208439-ECC3-42B0-ACF8-A84329DD6598}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{984FB991-D0D6-41CD-A48C-CD07CAEDB56C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -71,25 +71,25 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>16,8%</t>
@@ -98,7 +98,7 @@
     <t>14,92%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>18,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>81,53%</t>
+    <t>81,24%</t>
   </si>
   <si>
     <t>85,08%</t>
@@ -140,55 +140,55 @@
     <t>30,74%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>40,16%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>59,84%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>57,21%</t>
   </si>
   <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,211 +311,211 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>31,1%</t>
   </si>
   <si>
     <t>35,73%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
     <t>64,27%</t>
   </si>
   <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>41,51%</t>
   </si>
   <si>
-    <t>38,02%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
   </si>
   <si>
     <t>58,49%</t>
   </si>
   <si>
-    <t>61,98%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
@@ -524,217 +524,211 @@
     <t>20,48%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>25,04%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>74,96%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>76,86%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>60,57%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>45,36%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>37,27%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>37,54%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>62,73%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>63,87%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>62,46%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
@@ -743,187 +737,205 @@
     <t>22,63%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>28,76%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>50,96%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>44,56%</t>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>57,37%</t>
   </si>
   <si>
-    <t>60,96%</t>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>58,62%</t>
   </si>
   <si>
-    <t>55,69%</t>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>42,63%</t>
   </si>
   <si>
-    <t>39,04%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>44,31%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>46,8%</t>
   </si>
   <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>44,13%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
   </si>
   <si>
     <t>53,2%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
+    <t>55,87%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0D49A9-1A2A-4E45-8F13-3489AD23552A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F484CC5-C49E-4BA3-9CC0-44E07F41F309}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2002,7 +2014,7 @@
         <v>3630</v>
       </c>
       <c r="N14" s="7">
-        <v>3693422</v>
+        <v>3693421</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2053,7 +2065,7 @@
         <v>5083</v>
       </c>
       <c r="N15" s="7">
-        <v>5192751</v>
+        <v>5192750</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBCA435-5F96-4074-8B84-2488DB2F0A60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2974F5C-01F2-429A-8B5B-064128A90B11}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2380,13 +2392,13 @@
         <v>568515</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1064</v>
@@ -2395,13 +2407,13 @@
         <v>1129888</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2428,13 @@
         <v>1125913</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>949</v>
@@ -2431,13 +2443,13 @@
         <v>1022701</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2010</v>
@@ -2446,13 +2458,13 @@
         <v>2148614</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2532,13 @@
         <v>182204</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>163</v>
@@ -2535,13 +2547,13 @@
         <v>177188</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -2550,13 +2562,13 @@
         <v>359391</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2583,13 @@
         <v>259930</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -2586,13 +2598,13 @@
         <v>246535</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -2601,10 +2613,10 @@
         <v>506466</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>140</v>
@@ -2738,7 +2750,7 @@
         <v>2001</v>
       </c>
       <c r="I14" s="7">
-        <v>2162056</v>
+        <v>2162057</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2789,7 +2801,7 @@
         <v>2913</v>
       </c>
       <c r="I15" s="7">
-        <v>3144223</v>
+        <v>3144224</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B04626-AD42-4C50-AEA6-0DD9FDEF9574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79BFB36-4540-46F3-82D6-4C01EDBF3285}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,10 +3471,10 @@
         <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3489,13 @@
         <v>1726832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>1696</v>
@@ -3492,13 +3504,13 @@
         <v>1791649</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>3333</v>
@@ -3507,13 +3519,13 @@
         <v>3518481</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C60C19-05D8-43C4-A3C4-936DFF43AB6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48567F6-A545-4039-AA22-9AB270E4A108}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3724,13 @@
         <v>115569</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>428</v>
@@ -3727,13 +3739,13 @@
         <v>260955</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>564</v>
@@ -3742,13 +3754,13 @@
         <v>376524</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3775,13 @@
         <v>395114</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>942</v>
@@ -3778,13 +3790,13 @@
         <v>537769</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1454</v>
@@ -3793,13 +3805,13 @@
         <v>932883</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3879,13 @@
         <v>1017138</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1512</v>
@@ -3882,28 +3894,28 @@
         <v>1192123</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>2446</v>
       </c>
       <c r="N7" s="7">
-        <v>2209261</v>
+        <v>2209260</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3930,13 @@
         <v>1078502</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>1337</v>
@@ -3933,13 +3945,13 @@
         <v>1014031</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>2325</v>
@@ -3948,13 +3960,13 @@
         <v>2092534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4008,7 @@
         <v>4771</v>
       </c>
       <c r="N9" s="7">
-        <v>4301795</v>
+        <v>4301794</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4022,13 +4034,13 @@
         <v>396858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>574</v>
@@ -4037,13 +4049,13 @@
         <v>403933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>971</v>
@@ -4052,13 +4064,13 @@
         <v>800791</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4085,13 @@
         <v>265197</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>414</v>
@@ -4088,13 +4100,13 @@
         <v>300128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -4103,13 +4115,13 @@
         <v>565325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4189,13 @@
         <v>1529564</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>2514</v>
@@ -4192,28 +4204,28 @@
         <v>1857011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>3981</v>
       </c>
       <c r="N13" s="7">
-        <v>3386574</v>
+        <v>3386575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4240,13 @@
         <v>1738814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>2693</v>
@@ -4243,13 +4255,13 @@
         <v>1851929</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>4467</v>
@@ -4258,13 +4270,13 @@
         <v>3590743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4318,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977317</v>
+        <v>6977318</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AFF88D-283B-4C80-B697-3F6678558E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{696A5744-A7D2-415D-8E3C-7FDAF9108D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{984FB991-D0D6-41CD-A48C-CD07CAEDB56C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BC34C095-310A-473D-9188-AB49E7114D20}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -734,208 +734,220 @@
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F484CC5-C49E-4BA3-9CC0-44E07F41F309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F58DBC3-F9E3-482E-B04A-19B45C76DCCA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2974F5C-01F2-429A-8B5B-064128A90B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8FC55B-AAF9-4749-9BBA-B293592FA366}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2750,7 +2762,7 @@
         <v>2001</v>
       </c>
       <c r="I14" s="7">
-        <v>2162057</v>
+        <v>2162056</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>153</v>
@@ -2801,7 +2813,7 @@
         <v>2913</v>
       </c>
       <c r="I15" s="7">
-        <v>3144224</v>
+        <v>3144223</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79BFB36-4540-46F3-82D6-4C01EDBF3285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E6CE4-BBB2-4206-8054-2DD7CCBCA475}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3051,7 +3063,7 @@
         <v>795</v>
       </c>
       <c r="N5" s="7">
-        <v>842616</v>
+        <v>842615</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>175</v>
@@ -3102,7 +3114,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48567F6-A545-4039-AA22-9AB270E4A108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8121D928-2A1B-4109-B3AB-A7AA0D8DE405}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3733,7 @@
         <v>136</v>
       </c>
       <c r="D4" s="7">
-        <v>115569</v>
+        <v>108659</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3736,7 +3748,7 @@
         <v>428</v>
       </c>
       <c r="I4" s="7">
-        <v>260955</v>
+        <v>231220</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3751,7 +3763,7 @@
         <v>564</v>
       </c>
       <c r="N4" s="7">
-        <v>376524</v>
+        <v>339879</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3772,7 +3784,7 @@
         <v>512</v>
       </c>
       <c r="D5" s="7">
-        <v>395114</v>
+        <v>375782</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3787,7 +3799,7 @@
         <v>942</v>
       </c>
       <c r="I5" s="7">
-        <v>537769</v>
+        <v>490396</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3802,7 +3814,7 @@
         <v>1454</v>
       </c>
       <c r="N5" s="7">
-        <v>932883</v>
+        <v>866178</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3823,7 +3835,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3850,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3865,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,7 +3888,7 @@
         <v>934</v>
       </c>
       <c r="D7" s="7">
-        <v>1017138</v>
+        <v>971618</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3891,7 +3903,7 @@
         <v>1512</v>
       </c>
       <c r="I7" s="7">
-        <v>1192123</v>
+        <v>1176096</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3906,7 +3918,7 @@
         <v>2446</v>
       </c>
       <c r="N7" s="7">
-        <v>2209260</v>
+        <v>2147715</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3927,7 +3939,7 @@
         <v>988</v>
       </c>
       <c r="D8" s="7">
-        <v>1078502</v>
+        <v>1257953</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3942,7 +3954,7 @@
         <v>1337</v>
       </c>
       <c r="I8" s="7">
-        <v>1014031</v>
+        <v>1021810</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3957,7 +3969,7 @@
         <v>2325</v>
       </c>
       <c r="N8" s="7">
-        <v>2092534</v>
+        <v>2279762</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3978,7 +3990,7 @@
         <v>1922</v>
       </c>
       <c r="D9" s="7">
-        <v>2095640</v>
+        <v>2229571</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +4005,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4020,7 @@
         <v>4771</v>
       </c>
       <c r="N9" s="7">
-        <v>4301794</v>
+        <v>4427477</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,7 +4043,7 @@
         <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>396858</v>
+        <v>375278</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4046,7 +4058,7 @@
         <v>574</v>
       </c>
       <c r="I10" s="7">
-        <v>403933</v>
+        <v>370874</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4061,7 +4073,7 @@
         <v>971</v>
       </c>
       <c r="N10" s="7">
-        <v>800791</v>
+        <v>746153</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>273</v>
@@ -4082,7 +4094,7 @@
         <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>265197</v>
+        <v>256742</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>276</v>
@@ -4097,7 +4109,7 @@
         <v>414</v>
       </c>
       <c r="I11" s="7">
-        <v>300128</v>
+        <v>280737</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>279</v>
@@ -4112,7 +4124,7 @@
         <v>688</v>
       </c>
       <c r="N11" s="7">
-        <v>565325</v>
+        <v>537479</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4133,7 +4145,7 @@
         <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>662055</v>
+        <v>632020</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4160,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4175,7 @@
         <v>1659</v>
       </c>
       <c r="N12" s="7">
-        <v>1366116</v>
+        <v>1283632</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,7 +4198,7 @@
         <v>1467</v>
       </c>
       <c r="D13" s="7">
-        <v>1529564</v>
+        <v>1455556</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4195,37 +4207,37 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>2514</v>
       </c>
       <c r="I13" s="7">
-        <v>1857011</v>
+        <v>1778190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>3981</v>
       </c>
       <c r="N13" s="7">
-        <v>3386575</v>
+        <v>3233746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,46 +4249,46 @@
         <v>1774</v>
       </c>
       <c r="D14" s="7">
-        <v>1738814</v>
+        <v>1890476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>2693</v>
       </c>
       <c r="I14" s="7">
-        <v>1851929</v>
+        <v>1792943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>4467</v>
       </c>
       <c r="N14" s="7">
-        <v>3590743</v>
+        <v>3683419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4300,7 @@
         <v>3241</v>
       </c>
       <c r="D15" s="7">
-        <v>3268378</v>
+        <v>3346032</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4315,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4330,7 @@
         <v>8448</v>
       </c>
       <c r="N15" s="7">
-        <v>6977318</v>
+        <v>6917165</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
